--- a/IES300-Engenharia de Software III/Lista de Exercícios/ListaN1_CasoDeUsoTextual.xlsx
+++ b/IES300-Engenharia de Software III/Lista de Exercícios/ListaN1_CasoDeUsoTextual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nome do caso de uso" sheetId="1" state="visible" r:id="rId2"/>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Cliente informa dados para secretário.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente informacpf e data de nascimento para secretário.</t>
+    <t xml:space="preserve">Cliente informa cpf e data de nascimento para secretário.</t>
   </si>
   <si>
     <t xml:space="preserve">Secretário verifica se cliente já está cadastrado no sistema. Se não, segue o fluxo principal. Se sim, vai para o alternativo.</t>
@@ -2976,8 +2976,8 @@
   </sheetPr>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10458,7 +10458,7 @@
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/IES300-Engenharia de Software III/Lista de Exercícios/ListaN1_CasoDeUsoTextual.xlsx
+++ b/IES300-Engenharia de Software III/Lista de Exercícios/ListaN1_CasoDeUsoTextual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="nome do caso de uso" sheetId="1" state="visible" r:id="rId2"/>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">CSU 03 – Manter Veterinario</t>
   </si>
   <si>
-    <t xml:space="preserve">CSU 01.01 – Validar CRMV</t>
+    <t xml:space="preserve">CSU 03.01 – Validar CRMV</t>
   </si>
   <si>
     <t xml:space="preserve">Veterinário, Secretário</t>
@@ -975,7 +975,7 @@
   </sheetPr>
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A116" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2976,8 +2976,8 @@
   </sheetPr>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y34" activeCellId="0" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4501,10 +4501,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L54" activeCellId="0" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5319,703 +5319,235 @@
       <c r="U33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="n">
+      <c r="A34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="L34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="L35" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="L36" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="L37" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="L38" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="L39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="L34" s="28" t="n">
+      <c r="B40" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="L40" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="n">
+      <c r="M40" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="L35" s="28" t="n">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="L41" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="L36" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="L37" s="28" t="n">
-        <v>29</v>
-      </c>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="L38" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="L39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="L40" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="L41" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="L42" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="L43" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="L44" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="L45" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="L46" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="L47" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="L48" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="L49" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="L50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="L51" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="M51" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="L52" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="L53" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="L54" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="L55" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="L56" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="L57" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="L58" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="L59" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="53">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="L1:M1"/>
@@ -6053,8 +5585,8 @@
     <mergeCell ref="M32:U32"/>
     <mergeCell ref="B33:J33"/>
     <mergeCell ref="M33:U33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="M34:U34"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="L34:U34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="M35:U35"/>
     <mergeCell ref="B36:J36"/>
@@ -6069,42 +5601,6 @@
     <mergeCell ref="M40:U40"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="M41:U41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="M42:U42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="M47:U47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="M48:U48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="L50:U50"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="M51:U51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="M57:U57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="M59:U59"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6121,10 +5617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X31" activeCellId="0" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6496,75 +5992,81 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="M16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
+      <c r="M17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
@@ -6592,35 +6094,37 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="B19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="M19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -6632,7 +6136,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="7"/>
       <c r="M20" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -6743,7 +6247,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -6756,7 +6260,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="7"/>
       <c r="M25" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -6768,1041 +6272,685 @@
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="B26" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="B28" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
+      <c r="B30" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="20" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
+      <c r="M38" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
-      <c r="B40" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="B40" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
-      <c r="B41" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="B41" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="43"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
-      <c r="B42" s="28" t="n">
+      <c r="B42" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+    </row>
+    <row r="43" customFormat="false" ht="9.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N45" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
-      <c r="B46" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="B46" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
       <c r="L46" s="7"/>
       <c r="M46" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
-      <c r="B47" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
+      <c r="B47" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="43"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M47" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="B51" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
-      <c r="B53" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
-      <c r="B54" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
-      <c r="B55" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
-      <c r="B58" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
-      <c r="B60" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="B62" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
-      <c r="B64" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="36"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="66">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -7817,18 +6965,30 @@
     <mergeCell ref="O8:V8"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="M10:U10"/>
-    <mergeCell ref="B11:K17"/>
-    <mergeCell ref="M11:V17"/>
+    <mergeCell ref="B11:K14"/>
+    <mergeCell ref="M11:V14"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="M16:V16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="M17:V17"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="M19:V19"/>
     <mergeCell ref="B20:K23"/>
     <mergeCell ref="M20:V23"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="M25:V25"/>
-    <mergeCell ref="B26:K29"/>
-    <mergeCell ref="M26:V29"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="M31:V31"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="N27:V27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="N28:V28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="N29:V29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="N30:V30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="N31:V31"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="N32:V32"/>
     <mergeCell ref="C33:K33"/>
@@ -7836,53 +6996,27 @@
     <mergeCell ref="C34:K34"/>
     <mergeCell ref="N34:V34"/>
     <mergeCell ref="C35:K35"/>
-    <mergeCell ref="N35:V35"/>
     <mergeCell ref="C36:K36"/>
-    <mergeCell ref="N36:V36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="N37:V37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="N38:V38"/>
-    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="M38:V38"/>
     <mergeCell ref="N39:V39"/>
-    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="B40:K40"/>
     <mergeCell ref="N40:V40"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C42:K42"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:V43"/>
+    <mergeCell ref="C44:K44"/>
     <mergeCell ref="M44:V44"/>
+    <mergeCell ref="C45:K45"/>
     <mergeCell ref="N45:V45"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="C46:K46"/>
     <mergeCell ref="N46:V46"/>
-    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="N47:V47"/>
     <mergeCell ref="C48:K48"/>
-    <mergeCell ref="N48:V48"/>
     <mergeCell ref="C49:K49"/>
-    <mergeCell ref="N49:V49"/>
     <mergeCell ref="C50:K50"/>
-    <mergeCell ref="N50:V50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="N51:V51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="M52:V52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="N53:V53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="N54:V54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="N55:V55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="N56:V56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="N57:V57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="N58:V58"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C62:K62"/>
-    <mergeCell ref="C63:K63"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7899,10 +7033,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8272,61 +7406,77 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7"/>
+      <c r="B27" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="26"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
@@ -8334,110 +7484,98 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="B29" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="7"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="26"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="B30" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="B31" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+        <v>7</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C34" s="44"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
@@ -8450,806 +7588,230 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
-      <c r="B35" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="B35" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="7"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
-      <c r="B39" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
+      <c r="B39" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
-      <c r="B40" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
+      <c r="B40" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
-      <c r="B41" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
+      <c r="B41" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
-      <c r="B42" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
+      <c r="B42" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
       <c r="L42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
-      <c r="B43" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
+      <c r="B43" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
-      <c r="B44" s="28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
+      <c r="B44" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
-      <c r="B45" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
+      <c r="B45" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
       <c r="L45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="B51" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
-      <c r="B53" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
-      <c r="B54" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
-      <c r="B55" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4"/>
-      <c r="B58" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
-      <c r="B60" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="B62" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
-      <c r="B64" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4"/>
-      <c r="B66" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
-      <c r="B67" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
-      <c r="B68" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
-      <c r="B69" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
-      <c r="B70" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
-      <c r="B73" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4"/>
-      <c r="B77" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4"/>
-      <c r="B79" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4"/>
-      <c r="B80" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4"/>
-      <c r="B81" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4"/>
-      <c r="B82" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4"/>
-      <c r="B83" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="34"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="36"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="32">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B4:C4"/>
@@ -9261,8 +7823,10 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K20"/>
     <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K26"/>
-    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B23:K24"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="C31:K31"/>
@@ -9270,52 +7834,16 @@
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="C34:K34"/>
     <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="B39:K39"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C42:K42"/>
     <mergeCell ref="C43:K43"/>
-    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="B44:K44"/>
     <mergeCell ref="C45:K45"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C62:K62"/>
-    <mergeCell ref="C63:K63"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="C67:K67"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="C71:K71"/>
-    <mergeCell ref="C72:K72"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="C74:K74"/>
-    <mergeCell ref="C75:K75"/>
-    <mergeCell ref="C76:K76"/>
-    <mergeCell ref="C77:K77"/>
-    <mergeCell ref="C78:K78"/>
-    <mergeCell ref="C79:K79"/>
-    <mergeCell ref="C80:K80"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="C83:K83"/>
-    <mergeCell ref="C84:K84"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9332,10 +7860,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9547,597 +8075,617 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="B17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
+      <c r="B18" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="C31" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
-      <c r="B32" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
+      <c r="B32" s="28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
       <c r="L32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
-      <c r="B33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
-      <c r="B34" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="B34" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
+        <v>13</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
-      <c r="B40" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="B40" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
-      <c r="B41" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
+      <c r="B41" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
-      <c r="B42" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
+      <c r="B42" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
-      <c r="B43" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="B43" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
-      <c r="B44" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
+      <c r="B44" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="36"/>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
-      <c r="B48" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="B48" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
-      <c r="B49" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
+      <c r="B49" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
-      <c r="B51" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
+      <c r="B51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
@@ -10152,10 +8700,10 @@
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
@@ -10170,7 +8718,7 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -10186,7 +8734,7 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -10202,7 +8750,7 @@
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -10218,7 +8766,7 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -10234,7 +8782,7 @@
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -10248,153 +8796,21 @@
       <c r="L58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
-      <c r="B59" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
-      <c r="B60" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
-      <c r="B61" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="B62" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
-      <c r="B63" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
-      <c r="B64" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4"/>
-      <c r="B66" s="24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="34"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="36"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="44">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B4:C4"/>
@@ -10402,29 +8818,36 @@
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:K17"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K23"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K29"/>
-    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B11:K13"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K21"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C31:K31"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="C34:K34"/>
     <mergeCell ref="C35:K35"/>
     <mergeCell ref="C36:K36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="B40:K40"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C42:K42"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="C44:K44"/>
-    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
     <mergeCell ref="C49:K49"/>
     <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="B51:K51"/>
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="C53:K53"/>
     <mergeCell ref="C54:K54"/>
@@ -10432,14 +8855,6 @@
     <mergeCell ref="C56:K56"/>
     <mergeCell ref="C57:K57"/>
     <mergeCell ref="C58:K58"/>
-    <mergeCell ref="B59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C62:K62"/>
-    <mergeCell ref="C63:K63"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C65:K65"/>
-    <mergeCell ref="C66:K66"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -10458,7 +8873,7 @@
   </sheetPr>
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
